--- a/Form field validations.xlsx
+++ b/Form field validations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Page Name</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Login</t>
   </si>
   <si>
-    <t>loginData.username</t>
+    <t>loginData.twitterID</t>
   </si>
   <si>
     <t xml:space="preserve">{type: String, index: {unique: true }} </t>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>loginData.password</t>
@@ -166,7 +169,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -217,22 +220,28 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -240,50 +249,52 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -291,37 +302,41 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
